--- a/Code/Results/Cases/Case_3_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_76/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8452145680217882</v>
+        <v>0.273140775175392</v>
       </c>
       <c r="C2">
-        <v>0.130478226301733</v>
+        <v>0.04209342303292374</v>
       </c>
       <c r="D2">
-        <v>0.2700001971118979</v>
+        <v>0.3221304964359035</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5825107011787196</v>
+        <v>1.195002854771417</v>
       </c>
       <c r="G2">
-        <v>0.2809633992304867</v>
+        <v>0.5616081605313994</v>
       </c>
       <c r="H2">
-        <v>0.2732214318180155</v>
+        <v>0.7071845117177347</v>
       </c>
       <c r="I2">
-        <v>0.235415135586404</v>
+        <v>0.5692729848684088</v>
       </c>
       <c r="J2">
-        <v>0.1976507757635844</v>
+        <v>0.3157874387711033</v>
       </c>
       <c r="K2">
-        <v>0.9121938364308448</v>
+        <v>0.2824326445084466</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4161947179277661</v>
+        <v>0.2547900707812261</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.115545018794663</v>
+        <v>2.51270601604746</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.739198050196876</v>
+        <v>0.2394922067879293</v>
       </c>
       <c r="C3">
-        <v>0.1165132633124415</v>
+        <v>0.03749247042848936</v>
       </c>
       <c r="D3">
-        <v>0.2424796782797927</v>
+        <v>0.3161389828031247</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5696049876032134</v>
+        <v>1.200611460957106</v>
       </c>
       <c r="G3">
-        <v>0.2796425316779434</v>
+        <v>0.5663024528189169</v>
       </c>
       <c r="H3">
-        <v>0.278166351177795</v>
+        <v>0.712884750484001</v>
       </c>
       <c r="I3">
-        <v>0.2440111318047418</v>
+        <v>0.5758924875430331</v>
       </c>
       <c r="J3">
-        <v>0.18461512851853</v>
+        <v>0.314596671398462</v>
       </c>
       <c r="K3">
-        <v>0.8003967291612639</v>
+        <v>0.2465844776632196</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3631165246769825</v>
+        <v>0.2401114562535795</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.122764690458851</v>
+        <v>2.534359159853665</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6740300560379922</v>
+        <v>0.2187791219357393</v>
       </c>
       <c r="C4">
-        <v>0.1079248821877883</v>
+        <v>0.03465198786713586</v>
       </c>
       <c r="D4">
-        <v>0.2257778544492339</v>
+        <v>0.3125925338377442</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5627727751805196</v>
+        <v>1.204679329062934</v>
       </c>
       <c r="G4">
-        <v>0.2795462172210037</v>
+        <v>0.5695445945006554</v>
       </c>
       <c r="H4">
-        <v>0.2816567477484426</v>
+        <v>0.7166684454153085</v>
       </c>
       <c r="I4">
-        <v>0.2498314685697753</v>
+        <v>0.5802525382093613</v>
       </c>
       <c r="J4">
-        <v>0.1769073262904399</v>
+        <v>0.3140312065565283</v>
       </c>
       <c r="K4">
-        <v>0.7316578306302119</v>
+        <v>0.2244974574680185</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3306537328216805</v>
+        <v>0.2311744579039967</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.129655374595515</v>
+        <v>2.54900304331909</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6474494622861471</v>
+        <v>0.2103257061969828</v>
       </c>
       <c r="C5">
-        <v>0.1044208169400633</v>
+        <v>0.03349065121301464</v>
       </c>
       <c r="D5">
-        <v>0.2190177236527973</v>
+        <v>0.3111807643275029</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5602524580696624</v>
+        <v>1.206494078425024</v>
       </c>
       <c r="G5">
-        <v>0.2796792872876779</v>
+        <v>0.5709562451729226</v>
       </c>
       <c r="H5">
-        <v>0.2831901184472159</v>
+        <v>0.7182817370842045</v>
       </c>
       <c r="I5">
-        <v>0.2523354437799128</v>
+        <v>0.5821036359288438</v>
       </c>
       <c r="J5">
-        <v>0.1738369142195708</v>
+        <v>0.3138424719159119</v>
       </c>
       <c r="K5">
-        <v>0.7036163417617303</v>
+        <v>0.2154782962732469</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3174522449283543</v>
+        <v>0.2275518532978182</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.133059001089521</v>
+        <v>2.555309760171014</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6430341606319985</v>
+        <v>0.2089212754808614</v>
       </c>
       <c r="C6">
-        <v>0.1038386930934365</v>
+        <v>0.03329758383468118</v>
       </c>
       <c r="D6">
-        <v>0.2178978948141292</v>
+        <v>0.3109483651041387</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5598495933640706</v>
+        <v>1.206804905436805</v>
       </c>
       <c r="G6">
-        <v>0.2797115805817967</v>
+        <v>0.5711961108665449</v>
       </c>
       <c r="H6">
-        <v>0.2834513467851068</v>
+        <v>0.7185539374111372</v>
       </c>
       <c r="I6">
-        <v>0.252759087148176</v>
+        <v>0.5824154992984898</v>
       </c>
       <c r="J6">
-        <v>0.1733312271283651</v>
+        <v>0.3138136521646189</v>
       </c>
       <c r="K6">
-        <v>0.6989581058918333</v>
+        <v>0.21397957093005</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3152616683077412</v>
+        <v>0.2269514953324432</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.133659506851188</v>
+        <v>2.556377475163941</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6736716856754015</v>
+        <v>0.2186651667089166</v>
       </c>
       <c r="C7">
-        <v>0.1078776432231479</v>
+        <v>0.03463634102976698</v>
       </c>
       <c r="D7">
-        <v>0.2256865029160053</v>
+        <v>0.3125733586310702</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5627377307529926</v>
+        <v>1.204703167331786</v>
       </c>
       <c r="G7">
-        <v>0.2795473236902239</v>
+        <v>0.5695632663201806</v>
       </c>
       <c r="H7">
-        <v>0.2816769819995955</v>
+        <v>0.7166899136335516</v>
       </c>
       <c r="I7">
-        <v>0.2498647085002403</v>
+        <v>0.5802772017561644</v>
       </c>
       <c r="J7">
-        <v>0.1768656368745667</v>
+        <v>0.3140284923363339</v>
       </c>
       <c r="K7">
-        <v>0.7312797816640284</v>
+        <v>0.2243758960812698</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3304755881613346</v>
+        <v>0.2311255237334464</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.129698894391936</v>
+        <v>2.549086724362283</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8086717773733199</v>
+        <v>0.2615500378285844</v>
       </c>
       <c r="C8">
-        <v>0.1256655077961568</v>
+        <v>0.04051027106308425</v>
       </c>
       <c r="D8">
-        <v>0.2604684501958872</v>
+        <v>0.3200372396219251</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5778275836105848</v>
+        <v>1.196807221917133</v>
       </c>
       <c r="G8">
-        <v>0.2803550772793386</v>
+        <v>0.5631520521661102</v>
       </c>
       <c r="H8">
-        <v>0.2748302005607428</v>
+        <v>0.7090911031577818</v>
       </c>
       <c r="I8">
-        <v>0.2382638648661448</v>
+        <v>0.5714940268073914</v>
       </c>
       <c r="J8">
-        <v>0.1930922244372653</v>
+        <v>0.3153424985053661</v>
       </c>
       <c r="K8">
-        <v>0.8736621971411296</v>
+        <v>0.2700883490935837</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3978640020083546</v>
+        <v>0.2497133128275877</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.117510468628993</v>
+        <v>2.519892117856983</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.073108230521171</v>
+        <v>0.3452066854587201</v>
       </c>
       <c r="C9">
-        <v>0.1604756713956874</v>
+        <v>0.05190342717902752</v>
       </c>
       <c r="D9">
-        <v>0.3303877010713165</v>
+        <v>0.3357184321364599</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6165905502247782</v>
+        <v>1.186271691667102</v>
       </c>
       <c r="G9">
-        <v>0.2879593315420266</v>
+        <v>0.5534363434821614</v>
       </c>
       <c r="H9">
-        <v>0.2651586956088039</v>
+        <v>0.6964384266894186</v>
       </c>
       <c r="I9">
-        <v>0.2200170356379836</v>
+        <v>0.5566160707170802</v>
       </c>
       <c r="J9">
-        <v>0.2274477412378886</v>
+        <v>0.3192326689389233</v>
       </c>
       <c r="K9">
-        <v>1.152419004531907</v>
+        <v>0.3591036876878775</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5312527558474542</v>
+        <v>0.2867556773150071</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.114168244759512</v>
+        <v>2.473341482619773</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.267646984885374</v>
+        <v>0.4063768984965179</v>
       </c>
       <c r="C10">
-        <v>0.186065986448213</v>
+        <v>0.06019444524160633</v>
       </c>
       <c r="D10">
-        <v>0.3830362724460485</v>
+        <v>0.347870010266405</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6514043570797057</v>
+        <v>1.181543620308112</v>
       </c>
       <c r="G10">
-        <v>0.2977261843095675</v>
+        <v>0.5480422767977942</v>
       </c>
       <c r="H10">
-        <v>0.2605625693325209</v>
+        <v>0.6885096827205501</v>
       </c>
       <c r="I10">
-        <v>0.2096445208153099</v>
+        <v>0.5471151432949632</v>
       </c>
       <c r="J10">
-        <v>0.2545078211557694</v>
+        <v>0.3228907486848271</v>
       </c>
       <c r="K10">
-        <v>1.357407354622381</v>
+        <v>0.4240967602832768</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6303551642532881</v>
+        <v>0.314322064675828</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.125789519656109</v>
+        <v>2.445661905351741</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.356309080050636</v>
+        <v>0.4341366553355215</v>
       </c>
       <c r="C11">
-        <v>0.197725310577141</v>
+        <v>0.0639483953354727</v>
       </c>
       <c r="D11">
-        <v>0.4073206285010258</v>
+        <v>0.3535337855445562</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6687919492595569</v>
+        <v>1.180045975802706</v>
       </c>
       <c r="G11">
-        <v>0.3031965763193583</v>
+        <v>0.5459676569511558</v>
       </c>
       <c r="H11">
-        <v>0.2590683223913146</v>
+        <v>0.6851988060662748</v>
       </c>
       <c r="I11">
-        <v>0.2056519431696024</v>
+        <v>0.5431033812695851</v>
       </c>
       <c r="J11">
-        <v>0.2672776060293245</v>
+        <v>0.3247285054748659</v>
       </c>
       <c r="K11">
-        <v>1.450813589177471</v>
+        <v>0.4535707235451696</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6757607149352367</v>
+        <v>0.3269372001635134</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.134494953102305</v>
+        <v>2.434485468449509</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.389915922602057</v>
+        <v>0.4446384115598789</v>
       </c>
       <c r="C12">
-        <v>0.2021442399748281</v>
+        <v>0.06536731083677694</v>
       </c>
       <c r="D12">
-        <v>0.4165693524230392</v>
+        <v>0.3556979252563792</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6756145533815499</v>
+        <v>1.179572695522047</v>
       </c>
       <c r="G12">
-        <v>0.3054264044992863</v>
+        <v>0.545236618547861</v>
       </c>
       <c r="H12">
-        <v>0.2585928779620374</v>
+        <v>0.6839875637575901</v>
       </c>
       <c r="I12">
-        <v>0.2042504456590244</v>
+        <v>0.5416288515752861</v>
       </c>
       <c r="J12">
-        <v>0.2721850199451126</v>
+        <v>0.3254493654529682</v>
       </c>
       <c r="K12">
-        <v>1.486216076423744</v>
+        <v>0.4647180168144303</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6930082169365548</v>
+        <v>0.331724797074024</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.138315219092917</v>
+        <v>2.430456714959618</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.382676501134398</v>
+        <v>0.4423771370619534</v>
       </c>
       <c r="C13">
-        <v>0.2011923557655706</v>
+        <v>0.06506183999974269</v>
       </c>
       <c r="D13">
-        <v>0.4145750495113703</v>
+        <v>0.3552309791843982</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6741343309937449</v>
+        <v>1.17967045241074</v>
       </c>
       <c r="G13">
-        <v>0.3049389550161976</v>
+        <v>0.5453916326994559</v>
       </c>
       <c r="H13">
-        <v>0.2586911766423796</v>
+        <v>0.6842465362730579</v>
       </c>
       <c r="I13">
-        <v>0.2045472733073446</v>
+        <v>0.5419444322996263</v>
       </c>
       <c r="J13">
-        <v>0.2711248350180426</v>
+        <v>0.3252930066201998</v>
       </c>
       <c r="K13">
-        <v>1.478589960459885</v>
+        <v>0.4623178746813608</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6892911686644183</v>
+        <v>0.3306932389344155</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.137468632563554</v>
+        <v>2.431315327091966</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.359073233539391</v>
+        <v>0.4350008504736991</v>
       </c>
       <c r="C14">
-        <v>0.1980887753583715</v>
+        <v>0.06406518342424761</v>
       </c>
       <c r="D14">
-        <v>0.4080804411226211</v>
+        <v>0.3537114429163069</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6693483819995905</v>
+        <v>1.180005158419874</v>
       </c>
       <c r="G14">
-        <v>0.3033767900212609</v>
+        <v>0.5459064199248829</v>
       </c>
       <c r="H14">
-        <v>0.2590273682281037</v>
+        <v>0.685098304613156</v>
       </c>
       <c r="I14">
-        <v>0.2055343927113356</v>
+        <v>0.5429811760913701</v>
       </c>
       <c r="J14">
-        <v>0.2676798699881004</v>
+        <v>0.3247873113893576</v>
       </c>
       <c r="K14">
-        <v>1.453725485608089</v>
+        <v>0.4544880996103302</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6771785657843665</v>
+        <v>0.3273308693920995</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.13479856205511</v>
+        <v>2.434149941481067</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.344620041125893</v>
+        <v>0.430481306554185</v>
       </c>
       <c r="C15">
-        <v>0.1961882738786898</v>
+        <v>0.06345435834725777</v>
       </c>
       <c r="D15">
-        <v>0.4041093220413359</v>
+        <v>0.3527832035900929</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.666448354539348</v>
+        <v>1.180222394504938</v>
       </c>
       <c r="G15">
-        <v>0.3024408601301616</v>
+        <v>0.5462288507599951</v>
       </c>
       <c r="H15">
-        <v>0.2592452089983439</v>
+        <v>0.6856255727506806</v>
       </c>
       <c r="I15">
-        <v>0.2061535944816448</v>
+        <v>0.5436220253979123</v>
       </c>
       <c r="J15">
-        <v>0.2655792494720259</v>
+        <v>0.3244808055650168</v>
       </c>
       <c r="K15">
-        <v>1.438499671196411</v>
+        <v>0.4496903118928799</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6697664145304429</v>
+        <v>0.3252726827294126</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.133232254486032</v>
+        <v>2.435912729749418</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.261856762268508</v>
+        <v>0.4045613322189183</v>
       </c>
       <c r="C16">
-        <v>0.1853044868575466</v>
+        <v>0.05994875306224401</v>
       </c>
       <c r="D16">
-        <v>0.3814563538975619</v>
+        <v>0.3475025914404171</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6503005282622709</v>
+        <v>1.181654631613</v>
       </c>
       <c r="G16">
-        <v>0.297390244366234</v>
+        <v>0.5481854923110063</v>
       </c>
       <c r="H16">
-        <v>0.2606726138261024</v>
+        <v>0.6887320079259283</v>
       </c>
       <c r="I16">
-        <v>0.2099205591001407</v>
+        <v>0.5473835665102555</v>
       </c>
       <c r="J16">
-        <v>0.2536830150840359</v>
+        <v>0.3227741389631547</v>
       </c>
       <c r="K16">
-        <v>1.351306943085376</v>
+        <v>0.4221686647715899</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6273948916547383</v>
+        <v>0.3134991227309953</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.125292093413009</v>
+        <v>2.44642079022077</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.211132501152463</v>
+        <v>0.3886426792169289</v>
       </c>
       <c r="C17">
-        <v>0.1786331021326362</v>
+        <v>0.05779359204592538</v>
       </c>
       <c r="D17">
-        <v>0.3676483559247146</v>
+        <v>0.3442978160539099</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6408021239141775</v>
+        <v>1.182700500030492</v>
       </c>
       <c r="G17">
-        <v>0.2945623193904723</v>
+        <v>0.5494829792718932</v>
       </c>
       <c r="H17">
-        <v>0.2617042651421784</v>
+        <v>0.6907134747403632</v>
       </c>
       <c r="I17">
-        <v>0.2124215696870237</v>
+        <v>0.5497706308506629</v>
       </c>
       <c r="J17">
-        <v>0.2465067729694397</v>
+        <v>0.3217716138060212</v>
       </c>
       <c r="K17">
-        <v>1.297863282502504</v>
+        <v>0.4052610596166915</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6014889279573339</v>
+        <v>0.3062954524036599</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.121318932707865</v>
+        <v>2.453229614883398</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.18197226645637</v>
+        <v>0.3794804343742442</v>
       </c>
       <c r="C18">
-        <v>0.1747975312686663</v>
+        <v>0.05655234161389444</v>
       </c>
       <c r="D18">
-        <v>0.3597375243165999</v>
+        <v>0.3424673209429585</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6354838735215083</v>
+        <v>1.18336354107737</v>
       </c>
       <c r="G18">
-        <v>0.2930318060572716</v>
+        <v>0.5502649455461679</v>
       </c>
       <c r="H18">
-        <v>0.2623535019373975</v>
+        <v>0.6918810206529002</v>
       </c>
       <c r="I18">
-        <v>0.2139280324260184</v>
+        <v>0.5511728086705787</v>
       </c>
       <c r="J18">
-        <v>0.2424221303252239</v>
+        <v>0.3212113372625538</v>
       </c>
       <c r="K18">
-        <v>1.267138000645019</v>
+        <v>0.3955276598718171</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5866184998133548</v>
+        <v>0.3021591719187526</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.119353442308721</v>
+        <v>2.457279069162553</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.172101438142278</v>
+        <v>0.3763772007617945</v>
       </c>
       <c r="C19">
-        <v>0.1734991187542789</v>
+        <v>0.05613179315139405</v>
       </c>
       <c r="D19">
-        <v>0.3570642665493011</v>
+        <v>0.3418497512280254</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6337076539403341</v>
+        <v>1.183598597982808</v>
       </c>
       <c r="G19">
-        <v>0.2925297827596438</v>
+        <v>0.5505358334388077</v>
       </c>
       <c r="H19">
-        <v>0.2625827801230471</v>
+        <v>0.6922811176714276</v>
       </c>
       <c r="I19">
-        <v>0.21444958724204</v>
+        <v>0.5516525766830753</v>
       </c>
       <c r="J19">
-        <v>0.2410463502297375</v>
+        <v>0.321024446287467</v>
       </c>
       <c r="K19">
-        <v>1.256737101702782</v>
+        <v>0.3922306426139528</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5815885773381595</v>
+        <v>0.3007599227534641</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.118741935158823</v>
+        <v>2.458673020979049</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.216530570314234</v>
+        <v>0.3903378992160356</v>
       </c>
       <c r="C20">
-        <v>0.1793431051049765</v>
+        <v>0.0580231848928463</v>
       </c>
       <c r="D20">
-        <v>0.369114982445538</v>
+        <v>0.3446376455550961</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6417981322793409</v>
+        <v>1.182582802649819</v>
       </c>
       <c r="G20">
-        <v>0.2948533431033553</v>
+        <v>0.5493411658197473</v>
       </c>
       <c r="H20">
-        <v>0.2615886304773127</v>
+        <v>0.6904996612608159</v>
       </c>
       <c r="I20">
-        <v>0.2121482580558514</v>
+        <v>0.5495135013599501</v>
       </c>
       <c r="J20">
-        <v>0.2472662122499685</v>
+        <v>0.3218766424579087</v>
       </c>
       <c r="K20">
-        <v>1.303550928182887</v>
+        <v>0.4070617971865715</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6042435088704181</v>
+        <v>0.3070615646144432</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.121708561618561</v>
+        <v>2.452491018151775</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.366005133263485</v>
+        <v>0.4371677282590269</v>
       </c>
       <c r="C21">
-        <v>0.1990002592223448</v>
+        <v>0.0643579974874342</v>
       </c>
       <c r="D21">
-        <v>0.4099865940881386</v>
+        <v>0.3541572425666288</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6707475370488396</v>
+        <v>1.179904300871442</v>
       </c>
       <c r="G21">
-        <v>0.3038312518253221</v>
+        <v>0.5457537328817565</v>
       </c>
       <c r="H21">
-        <v>0.2589261291709519</v>
+        <v>0.6848469660996983</v>
       </c>
       <c r="I21">
-        <v>0.2052414057322665</v>
+        <v>0.5426754476777731</v>
       </c>
       <c r="J21">
-        <v>0.2686897452124981</v>
+        <v>0.3249351697028828</v>
       </c>
       <c r="K21">
-        <v>1.461027851554093</v>
+        <v>0.4567882757406778</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6807348241317328</v>
+        <v>0.3283181955275722</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.135568347793608</v>
+        <v>2.433311822840068</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.463888895972161</v>
+        <v>0.4677136207582748</v>
       </c>
       <c r="C22">
-        <v>0.211870091070864</v>
+        <v>0.06848283151263956</v>
       </c>
       <c r="D22">
-        <v>0.4370085071208223</v>
+        <v>0.360491800180796</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6910644401729513</v>
+        <v>1.178700708393251</v>
       </c>
       <c r="G22">
-        <v>0.3106269605106036</v>
+        <v>0.5437272667282471</v>
       </c>
       <c r="H22">
-        <v>0.2577152666409432</v>
+        <v>0.6814003925160321</v>
       </c>
       <c r="I22">
-        <v>0.2013739560254209</v>
+        <v>0.5384665764288954</v>
       </c>
       <c r="J22">
-        <v>0.2831124856419791</v>
+        <v>0.3270794556745926</v>
       </c>
       <c r="K22">
-        <v>1.564136884197012</v>
+        <v>0.4892063260320469</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7310411490732349</v>
+        <v>0.3422718180112909</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.147695411201639</v>
+        <v>2.421963394419024</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.411625766624411</v>
+        <v>0.4514164152726607</v>
       </c>
       <c r="C23">
-        <v>0.204998722624623</v>
+        <v>0.06628275994772537</v>
       </c>
       <c r="D23">
-        <v>0.4225564125623293</v>
+        <v>0.3571006455687211</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6800878089904998</v>
+        <v>1.179293068224197</v>
       </c>
       <c r="G23">
-        <v>0.3069113760112216</v>
+        <v>0.5447797043624831</v>
       </c>
       <c r="H23">
-        <v>0.2583115029541148</v>
+        <v>0.6832172348548013</v>
       </c>
       <c r="I23">
-        <v>0.2033768426172955</v>
+        <v>0.5406891151098066</v>
       </c>
       <c r="J23">
-        <v>0.2753743027891886</v>
+        <v>0.3259217204156641</v>
       </c>
       <c r="K23">
-        <v>1.509085186143068</v>
+        <v>0.4719118416794288</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.704160506480811</v>
+        <v>0.3348189988156136</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.14093104626582</v>
+        <v>2.427911711256343</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.214090098227047</v>
+        <v>0.3895715225977767</v>
       </c>
       <c r="C24">
-        <v>0.1790221131705181</v>
+        <v>0.05791939287330194</v>
       </c>
       <c r="D24">
-        <v>0.368451835071923</v>
+        <v>0.3444839713321954</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6413473941622954</v>
+        <v>1.182635821260668</v>
       </c>
       <c r="G24">
-        <v>0.2947214752413601</v>
+        <v>0.5494051674741769</v>
       </c>
       <c r="H24">
-        <v>0.2616407344324685</v>
+        <v>0.6905962379479718</v>
       </c>
       <c r="I24">
-        <v>0.2122716090264518</v>
+        <v>0.5496296567088628</v>
       </c>
       <c r="J24">
-        <v>0.2469227422342328</v>
+        <v>0.3218291088881813</v>
       </c>
       <c r="K24">
-        <v>1.300979543660333</v>
+        <v>0.4062477241504325</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.60299809092065</v>
+        <v>0.3067151890493065</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.121531420010456</v>
+        <v>2.4528245173139</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.001559513660368</v>
+        <v>0.3226249681899276</v>
       </c>
       <c r="C25">
-        <v>0.1510604440509553</v>
+        <v>0.04883503064992567</v>
       </c>
       <c r="D25">
-        <v>0.3112659229837789</v>
+        <v>0.3313650659642491</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6050479742926811</v>
+        <v>1.188592513024595</v>
       </c>
       <c r="G25">
-        <v>0.2852067265880862</v>
+        <v>0.555758606921998</v>
       </c>
       <c r="H25">
-        <v>0.2673510912498642</v>
+        <v>0.6996209604297405</v>
       </c>
       <c r="I25">
-        <v>0.2244424127103564</v>
+        <v>0.5603898329513086</v>
       </c>
       <c r="J25">
-        <v>0.2178549567696706</v>
+        <v>0.318039738207176</v>
       </c>
       <c r="K25">
-        <v>1.077010664197957</v>
+        <v>0.3350923046241689</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4950003603120194</v>
+        <v>0.2766723545640133</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.112717232493537</v>
+        <v>2.484789344755953</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_76/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.273140775175392</v>
+        <v>0.8452145680216461</v>
       </c>
       <c r="C2">
-        <v>0.04209342303292374</v>
+        <v>0.1304782263015056</v>
       </c>
       <c r="D2">
-        <v>0.3221304964359035</v>
+        <v>0.2700001971118695</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.195002854771417</v>
+        <v>0.5825107011787267</v>
       </c>
       <c r="G2">
-        <v>0.5616081605313994</v>
+        <v>0.2809633992304796</v>
       </c>
       <c r="H2">
-        <v>0.7071845117177347</v>
+        <v>0.2732214318180013</v>
       </c>
       <c r="I2">
-        <v>0.5692729848684088</v>
+        <v>0.2354151355864182</v>
       </c>
       <c r="J2">
-        <v>0.3157874387711033</v>
+        <v>0.1976507757635417</v>
       </c>
       <c r="K2">
-        <v>0.2824326445084466</v>
+        <v>0.9121938364308448</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2547900707812261</v>
+        <v>0.4161947179277519</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.51270601604746</v>
+        <v>1.115545018794634</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2394922067879293</v>
+        <v>0.739198050196876</v>
       </c>
       <c r="C3">
-        <v>0.03749247042848936</v>
+        <v>0.1165132633126262</v>
       </c>
       <c r="D3">
-        <v>0.3161389828031247</v>
+        <v>0.2424796782797927</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.200611460957106</v>
+        <v>0.5696049876032205</v>
       </c>
       <c r="G3">
-        <v>0.5663024528189169</v>
+        <v>0.2796425316778794</v>
       </c>
       <c r="H3">
-        <v>0.712884750484001</v>
+        <v>0.2781663511779087</v>
       </c>
       <c r="I3">
-        <v>0.5758924875430331</v>
+        <v>0.2440111318047258</v>
       </c>
       <c r="J3">
-        <v>0.314596671398462</v>
+        <v>0.184615128518395</v>
       </c>
       <c r="K3">
-        <v>0.2465844776632196</v>
+        <v>0.8003967291611218</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2401114562535795</v>
+        <v>0.3631165246770038</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.534359159853665</v>
+        <v>1.122764690458766</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2187791219357393</v>
+        <v>0.6740300560378785</v>
       </c>
       <c r="C4">
-        <v>0.03465198786713586</v>
+        <v>0.1079248821878025</v>
       </c>
       <c r="D4">
-        <v>0.3125925338377442</v>
+        <v>0.2257778544491629</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.204679329062934</v>
+        <v>0.5627727751805267</v>
       </c>
       <c r="G4">
-        <v>0.5695445945006554</v>
+        <v>0.2795462172209966</v>
       </c>
       <c r="H4">
-        <v>0.7166684454153085</v>
+        <v>0.2816567477484426</v>
       </c>
       <c r="I4">
-        <v>0.5802525382093613</v>
+        <v>0.2498314685697842</v>
       </c>
       <c r="J4">
-        <v>0.3140312065565283</v>
+        <v>0.1769073262904683</v>
       </c>
       <c r="K4">
-        <v>0.2244974574680185</v>
+        <v>0.7316578306303541</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2311744579039967</v>
+        <v>0.3306537328216805</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.54900304331909</v>
+        <v>1.129655374595501</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2103257061969828</v>
+        <v>0.6474494622860334</v>
       </c>
       <c r="C5">
-        <v>0.03349065121301464</v>
+        <v>0.1044208169398217</v>
       </c>
       <c r="D5">
-        <v>0.3111807643275029</v>
+        <v>0.2190177236528399</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.206494078425024</v>
+        <v>0.5602524580696695</v>
       </c>
       <c r="G5">
-        <v>0.5709562451729226</v>
+        <v>0.279679287287621</v>
       </c>
       <c r="H5">
-        <v>0.7182817370842045</v>
+        <v>0.2831901184470951</v>
       </c>
       <c r="I5">
-        <v>0.5821036359288438</v>
+        <v>0.252335443779927</v>
       </c>
       <c r="J5">
-        <v>0.3138424719159119</v>
+        <v>0.1738369142195779</v>
       </c>
       <c r="K5">
-        <v>0.2154782962732469</v>
+        <v>0.7036163417617018</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2275518532978182</v>
+        <v>0.3174522449283614</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.555309760171014</v>
+        <v>1.133059001089464</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2089212754808614</v>
+        <v>0.6430341606319985</v>
       </c>
       <c r="C6">
-        <v>0.03329758383468118</v>
+        <v>0.1038386930934081</v>
       </c>
       <c r="D6">
-        <v>0.3109483651041387</v>
+        <v>0.2178978948142856</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.206804905436805</v>
+        <v>0.5598495933640777</v>
       </c>
       <c r="G6">
-        <v>0.5711961108665449</v>
+        <v>0.2797115805817896</v>
       </c>
       <c r="H6">
-        <v>0.7185539374111372</v>
+        <v>0.2834513467851068</v>
       </c>
       <c r="I6">
-        <v>0.5824154992984898</v>
+        <v>0.2527590871481742</v>
       </c>
       <c r="J6">
-        <v>0.3138136521646189</v>
+        <v>0.1733312271283367</v>
       </c>
       <c r="K6">
-        <v>0.21397957093005</v>
+        <v>0.6989581058918901</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2269514953324432</v>
+        <v>0.3152616683077198</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.556377475163941</v>
+        <v>1.133659506851245</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2186651667089166</v>
+        <v>0.6736716856752594</v>
       </c>
       <c r="C7">
-        <v>0.03463634102976698</v>
+        <v>0.1078776432231905</v>
       </c>
       <c r="D7">
-        <v>0.3125733586310702</v>
+        <v>0.2256865029162753</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.204703167331786</v>
+        <v>0.5627377307529926</v>
       </c>
       <c r="G7">
-        <v>0.5695632663201806</v>
+        <v>0.2795473236901529</v>
       </c>
       <c r="H7">
-        <v>0.7166899136335516</v>
+        <v>0.2816769819995883</v>
       </c>
       <c r="I7">
-        <v>0.5802772017561644</v>
+        <v>0.2498647085002403</v>
       </c>
       <c r="J7">
-        <v>0.3140284923363339</v>
+        <v>0.176865636874588</v>
       </c>
       <c r="K7">
-        <v>0.2243758960812698</v>
+        <v>0.7312797816641563</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2311255237334464</v>
+        <v>0.3304755881613275</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.549086724362283</v>
+        <v>1.129698894391922</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2615500378285844</v>
+        <v>0.8086717773733199</v>
       </c>
       <c r="C8">
-        <v>0.04051027106308425</v>
+        <v>0.1256655077961568</v>
       </c>
       <c r="D8">
-        <v>0.3200372396219251</v>
+        <v>0.2604684501957308</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.196807221917133</v>
+        <v>0.5778275836106062</v>
       </c>
       <c r="G8">
-        <v>0.5631520521661102</v>
+        <v>0.2803550772793386</v>
       </c>
       <c r="H8">
-        <v>0.7090911031577818</v>
+        <v>0.2748302005607428</v>
       </c>
       <c r="I8">
-        <v>0.5714940268073914</v>
+        <v>0.2382638648661448</v>
       </c>
       <c r="J8">
-        <v>0.3153424985053661</v>
+        <v>0.1930922244372297</v>
       </c>
       <c r="K8">
-        <v>0.2700883490935837</v>
+        <v>0.8736621971412148</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2497133128275877</v>
+        <v>0.3978640020083404</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.519892117856983</v>
+        <v>1.117510468628993</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3452066854587201</v>
+        <v>1.073108230520944</v>
       </c>
       <c r="C9">
-        <v>0.05190342717902752</v>
+        <v>0.1604756713954743</v>
       </c>
       <c r="D9">
-        <v>0.3357184321364599</v>
+        <v>0.3303877010714444</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.186271691667102</v>
+        <v>0.6165905502247639</v>
       </c>
       <c r="G9">
-        <v>0.5534363434821614</v>
+        <v>0.2879593315419697</v>
       </c>
       <c r="H9">
-        <v>0.6964384266894186</v>
+        <v>0.2651586956087968</v>
       </c>
       <c r="I9">
-        <v>0.5566160707170802</v>
+        <v>0.22001703563798</v>
       </c>
       <c r="J9">
-        <v>0.3192326689389233</v>
+        <v>0.2274477412379881</v>
       </c>
       <c r="K9">
-        <v>0.3591036876878775</v>
+        <v>1.152419004532078</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2867556773150071</v>
+        <v>0.5312527558474329</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.473341482619773</v>
+        <v>1.114168244759583</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4063768984965179</v>
+        <v>1.267646984885488</v>
       </c>
       <c r="C10">
-        <v>0.06019444524160633</v>
+        <v>0.1860659864482699</v>
       </c>
       <c r="D10">
-        <v>0.347870010266405</v>
+        <v>0.3830362724460485</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.181543620308112</v>
+        <v>0.6514043570796915</v>
       </c>
       <c r="G10">
-        <v>0.5480422767977942</v>
+        <v>0.2977261843095604</v>
       </c>
       <c r="H10">
-        <v>0.6885096827205501</v>
+        <v>0.2605625693326346</v>
       </c>
       <c r="I10">
-        <v>0.5471151432949632</v>
+        <v>0.2096445208153064</v>
       </c>
       <c r="J10">
-        <v>0.3228907486848271</v>
+        <v>0.2545078211557126</v>
       </c>
       <c r="K10">
-        <v>0.4240967602832768</v>
+        <v>1.357407354622467</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.314322064675828</v>
+        <v>0.630355164253281</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.445661905351741</v>
+        <v>1.125789519656095</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4341366553355215</v>
+        <v>1.356309080050607</v>
       </c>
       <c r="C11">
-        <v>0.0639483953354727</v>
+        <v>0.197725310577141</v>
       </c>
       <c r="D11">
-        <v>0.3535337855445562</v>
+        <v>0.407320628500969</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.180045975802706</v>
+        <v>0.6687919492595569</v>
       </c>
       <c r="G11">
-        <v>0.5459676569511558</v>
+        <v>0.3031965763193369</v>
       </c>
       <c r="H11">
-        <v>0.6851988060662748</v>
+        <v>0.2590683223913146</v>
       </c>
       <c r="I11">
-        <v>0.5431033812695851</v>
+        <v>0.2056519431696024</v>
       </c>
       <c r="J11">
-        <v>0.3247285054748659</v>
+        <v>0.2672776060293529</v>
       </c>
       <c r="K11">
-        <v>0.4535707235451696</v>
+        <v>1.450813589177443</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3269372001635134</v>
+        <v>0.6757607149352296</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.434485468449509</v>
+        <v>1.134494953102276</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4446384115598789</v>
+        <v>1.389915922601972</v>
       </c>
       <c r="C12">
-        <v>0.06536731083677694</v>
+        <v>0.2021442399748423</v>
       </c>
       <c r="D12">
-        <v>0.3556979252563792</v>
+        <v>0.4165693524230392</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.179572695522047</v>
+        <v>0.6756145533815641</v>
       </c>
       <c r="G12">
-        <v>0.545236618547861</v>
+        <v>0.3054264044992152</v>
       </c>
       <c r="H12">
-        <v>0.6839875637575901</v>
+        <v>0.2585928779620161</v>
       </c>
       <c r="I12">
-        <v>0.5416288515752861</v>
+        <v>0.2042504456590279</v>
       </c>
       <c r="J12">
-        <v>0.3254493654529682</v>
+        <v>0.2721850199451836</v>
       </c>
       <c r="K12">
-        <v>0.4647180168144303</v>
+        <v>1.486216076423545</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.331724797074024</v>
+        <v>0.6930082169365406</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.430456714959618</v>
+        <v>1.138315219092846</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4423771370619534</v>
+        <v>1.382676501134256</v>
       </c>
       <c r="C13">
-        <v>0.06506183999974269</v>
+        <v>0.201192355765258</v>
       </c>
       <c r="D13">
-        <v>0.3552309791843982</v>
+        <v>0.414575049511285</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.17967045241074</v>
+        <v>0.6741343309937591</v>
       </c>
       <c r="G13">
-        <v>0.5453916326994559</v>
+        <v>0.3049389550161976</v>
       </c>
       <c r="H13">
-        <v>0.6842465362730579</v>
+        <v>0.2586911766423796</v>
       </c>
       <c r="I13">
-        <v>0.5419444322996263</v>
+        <v>0.2045472733073339</v>
       </c>
       <c r="J13">
-        <v>0.3252930066201998</v>
+        <v>0.2711248350182132</v>
       </c>
       <c r="K13">
-        <v>0.4623178746813608</v>
+        <v>1.478589960460027</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3306932389344155</v>
+        <v>0.6892911686644112</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.431315327091966</v>
+        <v>1.137468632563611</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4350008504736991</v>
+        <v>1.359073233539249</v>
       </c>
       <c r="C14">
-        <v>0.06406518342424761</v>
+        <v>0.19808877535786</v>
       </c>
       <c r="D14">
-        <v>0.3537114429163069</v>
+        <v>0.4080804411225643</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.180005158419874</v>
+        <v>0.6693483819995976</v>
       </c>
       <c r="G14">
-        <v>0.5459064199248829</v>
+        <v>0.3033767900213178</v>
       </c>
       <c r="H14">
-        <v>0.685098304613156</v>
+        <v>0.2590273682282174</v>
       </c>
       <c r="I14">
-        <v>0.5429811760913701</v>
+        <v>0.2055343927113498</v>
       </c>
       <c r="J14">
-        <v>0.3247873113893576</v>
+        <v>0.2676798699880436</v>
       </c>
       <c r="K14">
-        <v>0.4544880996103302</v>
+        <v>1.453725485608118</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3273308693920995</v>
+        <v>0.6771785657843807</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.434149941481067</v>
+        <v>1.134798562055039</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.430481306554185</v>
+        <v>1.344620041125836</v>
       </c>
       <c r="C15">
-        <v>0.06345435834725777</v>
+        <v>0.1961882738784482</v>
       </c>
       <c r="D15">
-        <v>0.3527832035900929</v>
+        <v>0.4041093220413359</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.180222394504938</v>
+        <v>0.6664483545393693</v>
       </c>
       <c r="G15">
-        <v>0.5462288507599951</v>
+        <v>0.3024408601301403</v>
       </c>
       <c r="H15">
-        <v>0.6856255727506806</v>
+        <v>0.2592452089982373</v>
       </c>
       <c r="I15">
-        <v>0.5436220253979123</v>
+        <v>0.2061535944816484</v>
       </c>
       <c r="J15">
-        <v>0.3244808055650168</v>
+        <v>0.2655792494720117</v>
       </c>
       <c r="K15">
-        <v>0.4496903118928799</v>
+        <v>1.438499671196382</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3252726827294126</v>
+        <v>0.66976641453045</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.435912729749418</v>
+        <v>1.133232254486018</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4045613322189183</v>
+        <v>1.261856762268621</v>
       </c>
       <c r="C16">
-        <v>0.05994875306224401</v>
+        <v>0.1853044868575608</v>
       </c>
       <c r="D16">
-        <v>0.3475025914404171</v>
+        <v>0.3814563538975051</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.181654631613</v>
+        <v>0.650300528262278</v>
       </c>
       <c r="G16">
-        <v>0.5481854923110063</v>
+        <v>0.2973902443662126</v>
       </c>
       <c r="H16">
-        <v>0.6887320079259283</v>
+        <v>0.2606726138261024</v>
       </c>
       <c r="I16">
-        <v>0.5473835665102555</v>
+        <v>0.209920559100123</v>
       </c>
       <c r="J16">
-        <v>0.3227741389631547</v>
+        <v>0.2536830150839933</v>
       </c>
       <c r="K16">
-        <v>0.4221686647715899</v>
+        <v>1.351306943085348</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3134991227309953</v>
+        <v>0.6273948916547383</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.44642079022077</v>
+        <v>1.125292093413051</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3886426792169289</v>
+        <v>1.211132501152662</v>
       </c>
       <c r="C17">
-        <v>0.05779359204592538</v>
+        <v>0.1786331021330909</v>
       </c>
       <c r="D17">
-        <v>0.3442978160539099</v>
+        <v>0.3676483559249135</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.182700500030492</v>
+        <v>0.6408021239141775</v>
       </c>
       <c r="G17">
-        <v>0.5494829792718932</v>
+        <v>0.2945623193904865</v>
       </c>
       <c r="H17">
-        <v>0.6907134747403632</v>
+        <v>0.2617042651422921</v>
       </c>
       <c r="I17">
-        <v>0.5497706308506629</v>
+        <v>0.2124215696870202</v>
       </c>
       <c r="J17">
-        <v>0.3217716138060212</v>
+        <v>0.246506772969397</v>
       </c>
       <c r="K17">
-        <v>0.4052610596166915</v>
+        <v>1.297863282502533</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3062954524036599</v>
+        <v>0.6014889279573481</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.453229614883398</v>
+        <v>1.121318932707979</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3794804343742442</v>
+        <v>1.181972266456597</v>
       </c>
       <c r="C18">
-        <v>0.05655234161389444</v>
+        <v>0.1747975312690215</v>
       </c>
       <c r="D18">
-        <v>0.3424673209429585</v>
+        <v>0.3597375243167136</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.18336354107737</v>
+        <v>0.6354838735215012</v>
       </c>
       <c r="G18">
-        <v>0.5502649455461679</v>
+        <v>0.2930318060572787</v>
       </c>
       <c r="H18">
-        <v>0.6918810206529002</v>
+        <v>0.2623535019374259</v>
       </c>
       <c r="I18">
-        <v>0.5511728086705787</v>
+        <v>0.213928032426022</v>
       </c>
       <c r="J18">
-        <v>0.3212113372625538</v>
+        <v>0.242422130325167</v>
       </c>
       <c r="K18">
-        <v>0.3955276598718171</v>
+        <v>1.267138000644991</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3021591719187526</v>
+        <v>0.5866184998133548</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.457279069162553</v>
+        <v>1.119353442308707</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3763772007617945</v>
+        <v>1.172101438142249</v>
       </c>
       <c r="C19">
-        <v>0.05613179315139405</v>
+        <v>0.1734991187542505</v>
       </c>
       <c r="D19">
-        <v>0.3418497512280254</v>
+        <v>0.3570642665496564</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.183598597982808</v>
+        <v>0.6337076539403625</v>
       </c>
       <c r="G19">
-        <v>0.5505358334388077</v>
+        <v>0.2925297827595941</v>
       </c>
       <c r="H19">
-        <v>0.6922811176714276</v>
+        <v>0.2625827801230542</v>
       </c>
       <c r="I19">
-        <v>0.5516525766830753</v>
+        <v>0.2144495872420364</v>
       </c>
       <c r="J19">
-        <v>0.321024446287467</v>
+        <v>0.2410463502297517</v>
       </c>
       <c r="K19">
-        <v>0.3922306426139528</v>
+        <v>1.256737101702669</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3007599227534641</v>
+        <v>0.5815885773381524</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.458673020979049</v>
+        <v>1.118741935158837</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3903378992160356</v>
+        <v>1.216530570314347</v>
       </c>
       <c r="C20">
-        <v>0.0580231848928463</v>
+        <v>0.1793431051049765</v>
       </c>
       <c r="D20">
-        <v>0.3446376455550961</v>
+        <v>0.3691149824455522</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.182582802649819</v>
+        <v>0.6417981322793338</v>
       </c>
       <c r="G20">
-        <v>0.5493411658197473</v>
+        <v>0.2948533431033482</v>
       </c>
       <c r="H20">
-        <v>0.6904996612608159</v>
+        <v>0.2615886304774193</v>
       </c>
       <c r="I20">
-        <v>0.5495135013599501</v>
+        <v>0.2121482580558478</v>
       </c>
       <c r="J20">
-        <v>0.3218766424579087</v>
+        <v>0.247266212250068</v>
       </c>
       <c r="K20">
-        <v>0.4070617971865715</v>
+        <v>1.303550928182887</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3070615646144432</v>
+        <v>0.6042435088704181</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.452491018151775</v>
+        <v>1.121708561618547</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4371677282590269</v>
+        <v>1.366005133263428</v>
       </c>
       <c r="C21">
-        <v>0.0643579974874342</v>
+        <v>0.1990002592220748</v>
       </c>
       <c r="D21">
-        <v>0.3541572425666288</v>
+        <v>0.409986594088025</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.179904300871442</v>
+        <v>0.6707475370488183</v>
       </c>
       <c r="G21">
-        <v>0.5457537328817565</v>
+        <v>0.3038312518253719</v>
       </c>
       <c r="H21">
-        <v>0.6848469660996983</v>
+        <v>0.258926129170824</v>
       </c>
       <c r="I21">
-        <v>0.5426754476777731</v>
+        <v>0.2052414057322629</v>
       </c>
       <c r="J21">
-        <v>0.3249351697028828</v>
+        <v>0.2686897452124981</v>
       </c>
       <c r="K21">
-        <v>0.4567882757406778</v>
+        <v>1.461027851554149</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3283181955275722</v>
+        <v>0.6807348241317328</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.433311822840068</v>
+        <v>1.135568347793537</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4677136207582748</v>
+        <v>1.46388889597219</v>
       </c>
       <c r="C22">
-        <v>0.06848283151263956</v>
+        <v>0.2118700910708498</v>
       </c>
       <c r="D22">
-        <v>0.360491800180796</v>
+        <v>0.4370085071206518</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.178700708393251</v>
+        <v>0.6910644401729442</v>
       </c>
       <c r="G22">
-        <v>0.5437272667282471</v>
+        <v>0.3106269605106462</v>
       </c>
       <c r="H22">
-        <v>0.6814003925160321</v>
+        <v>0.2577152666409361</v>
       </c>
       <c r="I22">
-        <v>0.5384665764288954</v>
+        <v>0.2013739560254137</v>
       </c>
       <c r="J22">
-        <v>0.3270794556745926</v>
+        <v>0.2831124856419933</v>
       </c>
       <c r="K22">
-        <v>0.4892063260320469</v>
+        <v>1.564136884196955</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3422718180112909</v>
+        <v>0.7310411490732349</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.421963394419024</v>
+        <v>1.14769541120161</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4514164152726607</v>
+        <v>1.411625766624354</v>
       </c>
       <c r="C23">
-        <v>0.06628275994772537</v>
+        <v>0.2049987226245946</v>
       </c>
       <c r="D23">
-        <v>0.3571006455687211</v>
+        <v>0.422556412562443</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.179293068224197</v>
+        <v>0.6800878089905069</v>
       </c>
       <c r="G23">
-        <v>0.5447797043624831</v>
+        <v>0.3069113760112145</v>
       </c>
       <c r="H23">
-        <v>0.6832172348548013</v>
+        <v>0.258311502954129</v>
       </c>
       <c r="I23">
-        <v>0.5406891151098066</v>
+        <v>0.203376842617299</v>
       </c>
       <c r="J23">
-        <v>0.3259217204156641</v>
+        <v>0.2753743027891318</v>
       </c>
       <c r="K23">
-        <v>0.4719118416794288</v>
+        <v>1.50908518614321</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3348189988156136</v>
+        <v>0.7041605064807968</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.427911711256343</v>
+        <v>1.140931046265891</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3895715225977767</v>
+        <v>1.214090098227075</v>
       </c>
       <c r="C24">
-        <v>0.05791939287330194</v>
+        <v>0.1790221131702623</v>
       </c>
       <c r="D24">
-        <v>0.3444839713321954</v>
+        <v>0.3684518350717667</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.182635821260668</v>
+        <v>0.6413473941623167</v>
       </c>
       <c r="G24">
-        <v>0.5494051674741769</v>
+        <v>0.2947214752414098</v>
       </c>
       <c r="H24">
-        <v>0.6905962379479718</v>
+        <v>0.2616407344324685</v>
       </c>
       <c r="I24">
-        <v>0.5496296567088628</v>
+        <v>0.2122716090264554</v>
       </c>
       <c r="J24">
-        <v>0.3218291088881813</v>
+        <v>0.246922742234247</v>
       </c>
       <c r="K24">
-        <v>0.4062477241504325</v>
+        <v>1.300979543660247</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3067151890493065</v>
+        <v>0.6029980909206216</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.4528245173139</v>
+        <v>1.121531420010513</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3226249681899276</v>
+        <v>1.001559513660368</v>
       </c>
       <c r="C25">
-        <v>0.04883503064992567</v>
+        <v>0.1510604440509411</v>
       </c>
       <c r="D25">
-        <v>0.3313650659642491</v>
+        <v>0.3112659229837931</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.188592513024595</v>
+        <v>0.6050479742926811</v>
       </c>
       <c r="G25">
-        <v>0.555758606921998</v>
+        <v>0.285206726588207</v>
       </c>
       <c r="H25">
-        <v>0.6996209604297405</v>
+        <v>0.2673510912498642</v>
       </c>
       <c r="I25">
-        <v>0.5603898329513086</v>
+        <v>0.2244424127103528</v>
       </c>
       <c r="J25">
-        <v>0.318039738207176</v>
+        <v>0.2178549567696138</v>
       </c>
       <c r="K25">
-        <v>0.3350923046241689</v>
+        <v>1.077010664197928</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2766723545640133</v>
+        <v>0.4950003603120336</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.484789344755953</v>
+        <v>1.112717232493537</v>
       </c>
     </row>
   </sheetData>
